--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandra\Documents\GitHub\VVSS\Docs\Lab01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Documents\GitHub\VVSS\Docs\Lab01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="112">
   <si>
     <t>Document  Title:</t>
   </si>
@@ -57,9 +57,6 @@
     <t xml:space="preserve">Author Name: </t>
   </si>
   <si>
-    <t>Georgescu Anca</t>
-  </si>
-  <si>
     <t>Requirements Document</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>Student 2:</t>
   </si>
   <si>
-    <t>Student 3:</t>
-  </si>
-  <si>
     <t>Echipa</t>
   </si>
   <si>
@@ -114,9 +108,6 @@
     <t>Numele si prenumele</t>
   </si>
   <si>
-    <t>Effort to perform dynamic code analysis (hours):</t>
-  </si>
-  <si>
     <t>R02</t>
   </si>
   <si>
@@ -195,9 +186,6 @@
     <t>C09</t>
   </si>
   <si>
-    <t>"l"-nu  este un identificator potrivit (sugestie "paymentList")</t>
-  </si>
-  <si>
     <t xml:space="preserve">controller-KitchenGUIController-53, 69                                                                                                 </t>
   </si>
   <si>
@@ -207,31 +195,174 @@
     <t xml:space="preserve">controller-KitchenGUIController-33                                                                                                                        </t>
   </si>
   <si>
-    <t>Apare o eroare logica datorata faptului ca bucatarul poate sa apese butoanele "Cook" si "Ready" chiar daca lista de comenzi este goala</t>
-  </si>
-  <si>
     <t>C02</t>
   </si>
   <si>
-    <t>Blocul de instructiuni corespunzator instructiunii "if" trebuie incadrat intre acolade, pentru a avea o secventa de cod compilabila</t>
-  </si>
-  <si>
     <t>C04</t>
   </si>
   <si>
     <t>1h</t>
   </si>
   <si>
-    <t>BufferedReader-ul nu se inchide in cazul in care apare o exceptie, motiv pentru care este recomandat sa se foloseasca try-with-resources</t>
-  </si>
-  <si>
     <t>repository-MenuRepository-29,         repository-PaymentRepository-33,  repository-PaymentRepository-73</t>
   </si>
   <si>
     <t>repository-MenuRepository-39,        repository-PaymentRepository-40</t>
   </si>
   <si>
-    <t>nu este tratat cazul in care bucatarul nu selecteaza comanda pe care sa o prepare, dar apasa butonul "Cook" sau nu selecteaza comanda preparata, dar apasa butonul "Ready" =&gt; NullPointerException , motiv pentru care aceste situatii sunt tratate cu mesaje de atentionare</t>
+    <t>Explicitly import the specific classes needed.</t>
+  </si>
+  <si>
+    <t>import java.io.*</t>
+  </si>
+  <si>
+    <t>import java.io.BufferedReader;
+import java.io.File;
+import java.io.FileNotFoundException;
+import java.io.FileReader;
+import java.io.IOException;</t>
+  </si>
+  <si>
+    <t>Add a nested  comment explaining why this method is empty.</t>
+  </si>
+  <si>
+    <t>public MenuRepository{}</t>
+  </si>
+  <si>
+    <t>repository-MenuRepository-5</t>
+  </si>
+  <si>
+    <t>repository-MenuRepository-14</t>
+  </si>
+  <si>
+    <t>service-PaymentAlert-46</t>
+  </si>
+  <si>
+    <t>Call "result.isPresent()" before accessing the value.</t>
+  </si>
+  <si>
+    <t>if(result.get()==cardPayment)</t>
+  </si>
+  <si>
+    <t>if(result.isPresent()){ if(result.get()==cardPayment)...}</t>
+  </si>
+  <si>
+    <t>service-PizzaService-35</t>
+  </si>
+  <si>
+    <t>if(p.getType().equals(type))</t>
+  </si>
+  <si>
+    <t>if(p.getType()==type)</t>
+  </si>
+  <si>
+    <t>Use "==" to perform this enum comparison instead of using "equals".</t>
+  </si>
+  <si>
+    <t>gui-KitchenGUI-17</t>
+  </si>
+  <si>
+    <t>Rename this method to prevent any misunderstanding or make it a constructor.</t>
+  </si>
+  <si>
+    <t>public void KitchenGUI(){...}</t>
+  </si>
+  <si>
+    <t>public void KitchenGui(){...}</t>
+  </si>
+  <si>
+    <t>gui-OrdersGUI-15</t>
+  </si>
+  <si>
+    <t>Add a constructor to the class or provide default values.</t>
+  </si>
+  <si>
+    <t>public OrderGUI(){}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gazda Alexandra </t>
+  </si>
+  <si>
+    <t>repository-MenuRepository-27</t>
+  </si>
+  <si>
+    <t>Either log or rethrow this exception.</t>
+  </si>
+  <si>
+    <t>catch (FileNotFoundException e) {
+            LOGGER.error(e);}</t>
+  </si>
+  <si>
+    <t>controller-KitchenGUIController-44</t>
+  </si>
+  <si>
+    <t>Add an end condition to this loop.</t>
+  </si>
+  <si>
+    <t>Nu am corectat acest issue deoarece thread-ul principal trebuie sa ruleze la infinit (pana cand este oprita aplicatia).</t>
+  </si>
+  <si>
+    <t>controller-OrdersGUIController</t>
+  </si>
+  <si>
+    <t>Nu am corectat acest issue deoarece toate field-urile clasei sunt utilizate.</t>
+  </si>
+  <si>
+    <t>catch (FileNotFoundException e){e.printStackTrace();}</t>
+  </si>
+  <si>
+    <t>Refactor this class so it has no more than 20 fields, rather than 21 it currently has.</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>Nu se realizeaza partitionarea pe pachete, diagrama fiind greu de urmarit.</t>
+  </si>
+  <si>
+    <t>Cerinta de afisare a totalului incasarilor realizate nu este acoperita in diagrama.</t>
+  </si>
+  <si>
+    <t>Numele claselor reflecta rolul acestora, dar lipseste descrierea lor.</t>
+  </si>
+  <si>
+    <t>Lipseste descrierea claselor.</t>
+  </si>
+  <si>
+    <t>Apare o eroare logica datorata faptului ca bucatarul poate sa apese butoanele "Cook" si "Ready" chiar daca lista de comenzi este goala.</t>
+  </si>
+  <si>
+    <t>Blocul de instructiuni corespunzator instructiunii "if" trebuie incadrat intre acolade, pentru a avea o secventa de cod compilabila.</t>
+  </si>
+  <si>
+    <t>BufferedReader-ul nu se inchide in cazul in care apare o exceptie, motiv pentru care este recomandat sa se foloseasca try-with-resources.</t>
+  </si>
+  <si>
+    <t>Nu este tratat cazul in care bucatarul nu selecteaza comanda pe care sa o prepare, dar apasa butonul "Cook" sau nu selecteaza comanda preparata, dar apasa butonul "Ready" =&gt; NullPointerException , motiv pentru care aceste situatii sunt tratate cu mesaje de atentionare.</t>
+  </si>
+  <si>
+    <t>"l"-nu  este un identificator potrivit (sugestie "paymentList").</t>
+  </si>
+  <si>
+    <t xml:space="preserve">public MenuRepository{                            //Implicit constructor } </t>
+  </si>
+  <si>
+    <t>PizzaService apare ca si field in OrdersGUI, chiar daca clasele din pachetul "gui" nu sunt responsabile de a face legatura cu clasele din "service".</t>
+  </si>
+  <si>
+    <t>Effort to perform dynamic code analysis (hours):    1 h</t>
   </si>
 </sst>
 </file>
@@ -416,12 +547,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -440,7 +568,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -455,9 +582,6 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -470,15 +594,28 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -521,7 +658,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -831,227 +967,227 @@
   </sheetPr>
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="20" customWidth="1"/>
-    <col min="5" max="5" width="41.44140625" style="24" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="21" style="6" customWidth="1"/>
-    <col min="10" max="10" width="14.44140625" style="6" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="12.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="18" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="22" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="5"/>
+    <col min="9" max="9" width="21" style="5" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="H1" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H3" s="16" t="s">
+      <c r="I3" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="15">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="H4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="16">
+      <c r="I4" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="2">
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="37"/>
-      <c r="H4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="3">
-        <v>233</v>
-      </c>
-    </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="39"/>
+      <c r="D5" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="25" t="s">
+      <c r="E9" s="23" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="26" t="s">
-        <v>49</v>
+      <c r="C10" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="34" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <v>2</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>47</v>
+      <c r="C11" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <f>B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>42</v>
+      <c r="C12" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <f>B12+1</f>
         <v>4</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="26" t="s">
-        <v>43</v>
+      <c r="C13" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <f>B13+1</f>
         <v>5</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="23" t="s">
+      <c r="C14" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E14" s="26" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="3">
+      <c r="B15" s="2">
         <f>B14+1</f>
         <v>6</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="26" t="s">
-        <v>50</v>
+      <c r="C15" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="34" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="B16" s="3">
+      <c r="B16" s="2">
         <f>B15+1</f>
         <v>7</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="26" t="s">
+      <c r="C16" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="E17" s="24"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="25" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="E17" s="27"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C18" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="28" t="s">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1076,274 +1212,191 @@
   <sheetPr>
     <tabColor theme="9" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="4" width="16.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="22" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="12.33203125" style="5" customWidth="1"/>
+    <col min="3" max="4" width="16.33203125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="5" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="5"/>
+    <col min="9" max="9" width="22" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="H1" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>22</v>
+      <c r="B2" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="15">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="42"/>
+      <c r="H4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="40" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="40"/>
-      <c r="H4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="2">
+        <v>233</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="42"/>
-      <c r="H5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
+      <c r="D5" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="44"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
+      <c r="C10" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
-        <f t="shared" ref="B12:B26" si="0">B11+1</f>
+      <c r="C11" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <f t="shared" ref="B12:B14" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
+      <c r="C12" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="32"/>
+      <c r="E12" s="33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="2"/>
+      <c r="C13" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="32"/>
+      <c r="E13" s="33" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="C14" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="2"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="3">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="3">
-        <f t="shared" si="0"/>
+      <c r="C16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="3">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="3">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="3">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="3">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="3">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="3">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="E27" s="11"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C28" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="1"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1366,198 +1419,198 @@
   </sheetPr>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" style="29" customWidth="1"/>
-    <col min="5" max="5" width="41.44140625" style="6" customWidth="1"/>
-    <col min="6" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="12.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="5" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="5"/>
+    <col min="9" max="9" width="26.77734375" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="H1" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>22</v>
+      <c r="B2" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="15">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="45"/>
+      <c r="H4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="J3" s="16">
+      <c r="I4" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="2">
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="43"/>
-      <c r="H4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="3">
-        <v>233</v>
-      </c>
-    </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="E5" s="45"/>
+      <c r="D5" s="46" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="47"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="9" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
+      <c r="B10" s="2">
         <v>1</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>61</v>
+      <c r="C10" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
+      <c r="B11" s="2">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>63</v>
+      <c r="C11" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
+      <c r="B12" s="2">
         <f>B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>66</v>
+      <c r="C12" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
+      <c r="B13" s="2">
         <f>B12+1</f>
         <v>4</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>69</v>
+      <c r="C13" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>5</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>57</v>
+      <c r="C14" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="E15" s="11"/>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="33"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1582,330 +1635,281 @@
   <sheetPr>
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="6"/>
-    <col min="2" max="2" width="12.33203125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="18" style="6" customWidth="1"/>
-    <col min="5" max="5" width="24" style="6" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" style="6" customWidth="1"/>
-    <col min="7" max="8" width="8.88671875" style="6"/>
-    <col min="9" max="9" width="26.77734375" style="6" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="8.88671875" style="5"/>
+    <col min="2" max="2" width="12.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="30.44140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="37.88671875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="28.21875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="38.44140625" style="5" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="5"/>
+    <col min="9" max="9" width="26.77734375" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="36" t="s">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H3" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="15">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="H4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="2">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C5" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="36"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="H3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C4" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="H4" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C5" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="H5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9" t="s">
+      <c r="F9" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+      <c r="B10" s="31">
         <v>1</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="3">
+      <c r="C10" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="33" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="31">
         <f>B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
-        <f t="shared" ref="B12:B30" si="0">B11+1</f>
+      <c r="C11" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B12" s="31">
+        <f t="shared" ref="B12:B18" si="0">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="3">
+      <c r="C12" s="32" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="31">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="3">
+      <c r="C13" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="31">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="3">
+      <c r="C14" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B15" s="31">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="3">
+      <c r="C15" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B16" s="31">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="3">
+      <c r="C16" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B17" s="31">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="3">
+      <c r="C17" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B18" s="31">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="C18" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="E19" s="10"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="3">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="3">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="3">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="3">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B26" s="3">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="3">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="3">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="3">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="3">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E31" s="11"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C32" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="17"/>
+      <c r="C20" s="48" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C20:E20"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="D4:E4"/>
